--- a/Daily/Forecast/Non-Stationarity/Square Log-Price/fast_retailing.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Square Log-Price/fast_retailing.xlsx
@@ -417,13 +417,13 @@
         <v>2584</v>
       </c>
       <c r="C2">
-        <v>110.7481939673612</v>
+        <v>110.7605055226329</v>
       </c>
       <c r="D2">
-        <v>107.620040287591</v>
+        <v>107.6322153593595</v>
       </c>
       <c r="E2">
-        <v>113.8763476471314</v>
+        <v>113.8887956859062</v>
       </c>
       <c r="F2">
         <v>110.4598251924767</v>
@@ -437,13 +437,13 @@
         <v>2585</v>
       </c>
       <c r="C3">
-        <v>110.4688152261574</v>
+        <v>110.4586669694804</v>
       </c>
       <c r="D3">
-        <v>107.341246971516</v>
+        <v>107.330959353662</v>
       </c>
       <c r="E3">
-        <v>113.5963834807987</v>
+        <v>113.5863745852988</v>
       </c>
       <c r="F3">
         <v>110.6538544705691</v>
@@ -457,13 +457,13 @@
         <v>2586</v>
       </c>
       <c r="C4">
-        <v>110.6464223138487</v>
+        <v>110.6527796164035</v>
       </c>
       <c r="D4">
-        <v>107.5194506861004</v>
+        <v>107.5256688723629</v>
       </c>
       <c r="E4">
-        <v>113.773393941597</v>
+        <v>113.7798903604441</v>
       </c>
       <c r="F4">
         <v>110.7615813343484</v>
@@ -477,13 +477,13 @@
         <v>2587</v>
       </c>
       <c r="C5">
-        <v>110.7565789020341</v>
+        <v>110.7605076995496</v>
       </c>
       <c r="D5">
-        <v>107.6302085276496</v>
+        <v>107.6339986219007</v>
       </c>
       <c r="E5">
-        <v>113.8829492764186</v>
+        <v>113.8870167771984</v>
       </c>
       <c r="F5">
         <v>110.5855583702622</v>
@@ -497,13 +497,13 @@
         <v>2588</v>
       </c>
       <c r="C6">
-        <v>110.5905015694187</v>
+        <v>110.5844801325036</v>
       </c>
       <c r="D6">
-        <v>107.4647283522342</v>
+        <v>107.4585678030291</v>
       </c>
       <c r="E6">
-        <v>113.7162747866031</v>
+        <v>113.710392461978</v>
       </c>
       <c r="F6">
         <v>110.078488748459</v>
@@ -517,13 +517,13 @@
         <v>2589</v>
       </c>
       <c r="C7">
-        <v>110.0951890900954</v>
+        <v>110.0774127647002</v>
       </c>
       <c r="D7">
-        <v>106.969957238185</v>
+        <v>106.9520433728563</v>
       </c>
       <c r="E7">
-        <v>113.2204209420059</v>
+        <v>113.2027821565441</v>
       </c>
       <c r="F7">
         <v>109.9441123444583</v>
@@ -537,13 +537,13 @@
         <v>2590</v>
       </c>
       <c r="C8">
-        <v>109.9482989160199</v>
+        <v>109.9430372080197</v>
       </c>
       <c r="D8">
-        <v>106.8236649893354</v>
+        <v>106.8182670043585</v>
       </c>
       <c r="E8">
-        <v>113.0729328427043</v>
+        <v>113.0678074116809</v>
       </c>
       <c r="F8">
         <v>109.920662826385</v>
@@ -557,13 +557,13 @@
         <v>2591</v>
       </c>
       <c r="C9">
-        <v>109.9206011465999</v>
+        <v>109.9195879498924</v>
       </c>
       <c r="D9">
-        <v>106.7965700141671</v>
+        <v>106.795420690699</v>
       </c>
       <c r="E9">
-        <v>113.0446322790326</v>
+        <v>113.0437552090859</v>
       </c>
       <c r="F9">
         <v>110.2583817888211</v>
@@ -577,13 +577,13 @@
         <v>2592</v>
       </c>
       <c r="C10">
-        <v>110.2457510072855</v>
+        <v>110.2573073812073</v>
       </c>
       <c r="D10">
-        <v>107.1222957108307</v>
+        <v>107.133715653664</v>
       </c>
       <c r="E10">
-        <v>113.3692063037403</v>
+        <v>113.3808991087506</v>
       </c>
       <c r="F10">
         <v>110.1540976438699</v>
@@ -597,13 +597,13 @@
         <v>2593</v>
       </c>
       <c r="C11">
-        <v>110.1562290844128</v>
+        <v>110.1530191161253</v>
       </c>
       <c r="D11">
-        <v>107.0333737326102</v>
+        <v>107.0300271658713</v>
       </c>
       <c r="E11">
-        <v>113.2790844362153</v>
+        <v>113.2760110663792</v>
       </c>
       <c r="F11">
         <v>110.4827364359122</v>
@@ -617,13 +617,13 @@
         <v>2594</v>
       </c>
       <c r="C12">
-        <v>110.4704539677483</v>
+        <v>110.4816575136681</v>
       </c>
       <c r="D12">
-        <v>107.3481757728944</v>
+        <v>107.3592418413947</v>
       </c>
       <c r="E12">
-        <v>113.5927321626022</v>
+        <v>113.6040731859415</v>
       </c>
       <c r="F12">
         <v>110.5798579602474</v>
@@ -637,13 +637,13 @@
         <v>2595</v>
       </c>
       <c r="C13">
-        <v>110.5750776932545</v>
+        <v>110.5787774759179</v>
       </c>
       <c r="D13">
-        <v>107.4533981970866</v>
+        <v>107.4569611886392</v>
       </c>
       <c r="E13">
-        <v>113.6967571894224</v>
+        <v>113.7005937631966</v>
       </c>
       <c r="F13">
         <v>110.4311543248717</v>
@@ -657,13 +657,13 @@
         <v>2596</v>
       </c>
       <c r="C14">
-        <v>110.435124467072</v>
+        <v>110.4300832779705</v>
       </c>
       <c r="D14">
-        <v>107.3140415031237</v>
+        <v>107.3088632608273</v>
       </c>
       <c r="E14">
-        <v>113.5562074310203</v>
+        <v>113.5513032951137</v>
       </c>
       <c r="F14">
         <v>109.8913175290603</v>
@@ -677,13 +677,13 @@
         <v>2597</v>
       </c>
       <c r="C15">
-        <v>109.9089977725654</v>
+        <v>109.8902384880419</v>
       </c>
       <c r="D15">
-        <v>106.7884455733662</v>
+        <v>106.7695504907732</v>
       </c>
       <c r="E15">
-        <v>113.0295499717646</v>
+        <v>113.0109264853105</v>
       </c>
       <c r="F15">
         <v>109.3746659989649</v>
@@ -697,13 +697,13 @@
         <v>2598</v>
       </c>
       <c r="C16">
-        <v>109.3916872270766</v>
+        <v>109.3735870514427</v>
       </c>
       <c r="D16">
-        <v>106.2716679665058</v>
+        <v>106.2534366562201</v>
       </c>
       <c r="E16">
-        <v>112.5117064876474</v>
+        <v>112.4937374466652</v>
       </c>
       <c r="F16">
         <v>109.2119516634916</v>
@@ -717,13 +717,13 @@
         <v>2599</v>
       </c>
       <c r="C17">
-        <v>109.2169739508788</v>
+        <v>109.2108731139032</v>
       </c>
       <c r="D17">
-        <v>106.0975473088602</v>
+        <v>106.0913168315068</v>
       </c>
       <c r="E17">
-        <v>112.3364005928975</v>
+        <v>112.3304293962995</v>
       </c>
       <c r="F17">
         <v>109.2663171173544</v>
@@ -737,13 +737,13 @@
         <v>2600</v>
       </c>
       <c r="C18">
-        <v>109.2636523374101</v>
+        <v>109.2652368864216</v>
       </c>
       <c r="D18">
-        <v>106.1448250021498</v>
+        <v>106.1462798338254</v>
       </c>
       <c r="E18">
-        <v>112.3824796726704</v>
+        <v>112.3841939390177</v>
       </c>
       <c r="F18">
         <v>109.2542469503667</v>
@@ -757,13 +757,13 @@
         <v>2601</v>
       </c>
       <c r="C19">
-        <v>109.2534394332705</v>
+        <v>109.2531723075755</v>
       </c>
       <c r="D19">
-        <v>106.135210178056</v>
+        <v>106.1348149217808</v>
       </c>
       <c r="E19">
-        <v>112.371668688485</v>
+        <v>112.3715296933701</v>
       </c>
       <c r="F19">
         <v>109.3926748934759</v>
@@ -777,13 +777,13 @@
         <v>2602</v>
       </c>
       <c r="C20">
-        <v>109.3870029565299</v>
+        <v>109.3915669257834</v>
       </c>
       <c r="D20">
-        <v>106.2693699813602</v>
+        <v>106.2738038081004</v>
       </c>
       <c r="E20">
-        <v>112.5046359316997</v>
+        <v>112.5093300434663</v>
       </c>
       <c r="F20">
         <v>109.7440310163861</v>
@@ -797,13 +797,13 @@
         <v>2603</v>
       </c>
       <c r="C21">
-        <v>109.7309718959546</v>
+        <v>109.7429572724092</v>
       </c>
       <c r="D21">
-        <v>106.6139062452101</v>
+        <v>106.6257641654267</v>
       </c>
       <c r="E21">
-        <v>112.848037546699</v>
+        <v>112.8601503793917</v>
       </c>
       <c r="F21">
         <v>109.3024898532172</v>
@@ -817,13 +817,13 @@
         <v>2604</v>
       </c>
       <c r="C22">
-        <v>109.3159506255128</v>
+        <v>109.301377583619</v>
       </c>
       <c r="D22">
-        <v>106.1994412997395</v>
+        <v>106.1847366142142</v>
       </c>
       <c r="E22">
-        <v>112.4324599512861</v>
+        <v>112.4180185530239</v>
       </c>
       <c r="F22">
         <v>109.0298041627799</v>
@@ -837,13 +837,13 @@
         <v>2605</v>
       </c>
       <c r="C23">
-        <v>109.0383860975353</v>
+        <v>109.0286986897263</v>
       </c>
       <c r="D23">
-        <v>105.9224556477987</v>
+        <v>105.9126385798736</v>
       </c>
       <c r="E23">
-        <v>112.1543165472718</v>
+        <v>112.144758799579</v>
       </c>
       <c r="F23">
         <v>109.320555020776</v>
@@ -857,13 +857,13 @@
         <v>2606</v>
       </c>
       <c r="C24">
-        <v>109.3100312609099</v>
+        <v>109.3194340610978</v>
       </c>
       <c r="D24">
-        <v>106.1946799025796</v>
+        <v>106.2039515604377</v>
       </c>
       <c r="E24">
-        <v>112.4253826192402</v>
+        <v>112.4349165617578</v>
       </c>
       <c r="F24">
         <v>108.9687677427628</v>
@@ -877,13 +877,13 @@
         <v>2607</v>
       </c>
       <c r="C25">
-        <v>108.9793342615216</v>
+        <v>108.9676934665465</v>
       </c>
       <c r="D25">
-        <v>105.8645529988901</v>
+        <v>105.8527799985081</v>
       </c>
       <c r="E25">
-        <v>112.094115524153</v>
+        <v>112.082606934585</v>
       </c>
       <c r="F25">
         <v>108.7846842177405</v>
@@ -897,13 +897,13 @@
         <v>2608</v>
       </c>
       <c r="C26">
-        <v>108.7902532948253</v>
+        <v>108.7836027087509</v>
       </c>
       <c r="D26">
-        <v>105.6760602588459</v>
+        <v>105.6692784492927</v>
       </c>
       <c r="E26">
-        <v>111.9044463308046</v>
+        <v>111.8979269682092</v>
       </c>
       <c r="F26">
         <v>109.2542469503667</v>
@@ -917,13 +917,13 @@
         <v>2609</v>
       </c>
       <c r="C27">
-        <v>109.2374774254821</v>
+        <v>109.2531673092135</v>
       </c>
       <c r="D27">
-        <v>106.1238303428644</v>
+        <v>106.1393876585523</v>
       </c>
       <c r="E27">
-        <v>112.3511245080999</v>
+        <v>112.3669469598748</v>
       </c>
       <c r="F27">
         <v>108.9870956144273</v>
@@ -937,13 +937,13 @@
         <v>2610</v>
       </c>
       <c r="C28">
-        <v>108.9946542547945</v>
+        <v>108.9860222159115</v>
       </c>
       <c r="D28">
-        <v>105.8815889748136</v>
+        <v>105.8728224416192</v>
       </c>
       <c r="E28">
-        <v>112.1077195347753</v>
+        <v>112.0992219902039</v>
       </c>
       <c r="F28">
         <v>109.0176097778482</v>
@@ -957,13 +957,13 @@
         <v>2611</v>
       </c>
       <c r="C29">
-        <v>109.0158242825779</v>
+        <v>109.0165061702221</v>
       </c>
       <c r="D29">
-        <v>105.9033550789032</v>
+        <v>105.9039020130191</v>
       </c>
       <c r="E29">
-        <v>112.1282934862526</v>
+        <v>112.1291103274251</v>
       </c>
       <c r="F29">
         <v>109.4226585934909</v>
@@ -977,13 +977,13 @@
         <v>2612</v>
       </c>
       <c r="C30">
-        <v>109.4077306686918</v>
+        <v>109.4215664022114</v>
       </c>
       <c r="D30">
-        <v>106.2958180187073</v>
+        <v>106.3095193460816</v>
       </c>
       <c r="E30">
-        <v>112.5196433186762</v>
+        <v>112.5336134583412</v>
       </c>
       <c r="F30">
         <v>109.3986747436414</v>
@@ -997,13 +997,13 @@
         <v>2613</v>
       </c>
       <c r="C31">
-        <v>109.397979307666</v>
+        <v>109.3976013178016</v>
       </c>
       <c r="D31">
-        <v>106.2866623325979</v>
+        <v>106.2861499220313</v>
       </c>
       <c r="E31">
-        <v>112.5092962827341</v>
+        <v>112.5090527135719</v>
       </c>
       <c r="F31">
         <v>109.8089524617637</v>
@@ -1017,13 +1017,13 @@
         <v>2614</v>
       </c>
       <c r="C32">
-        <v>109.7938956030638</v>
+        <v>109.8078819936515</v>
       </c>
       <c r="D32">
-        <v>106.6831340653578</v>
+        <v>106.6969859267078</v>
       </c>
       <c r="E32">
-        <v>112.9046571407698</v>
+        <v>112.9187780605952</v>
       </c>
       <c r="F32">
         <v>110.0259993764019</v>
@@ -1037,13 +1037,13 @@
         <v>2615</v>
       </c>
       <c r="C33">
-        <v>110.0171113743568</v>
+        <v>110.0249294753554</v>
       </c>
       <c r="D33">
-        <v>106.9069320081518</v>
+        <v>106.9146170819516</v>
       </c>
       <c r="E33">
-        <v>113.1272907405618</v>
+        <v>113.1352418687592</v>
       </c>
       <c r="F33">
         <v>109.1938013922568</v>
@@ -1057,13 +1057,13 @@
         <v>2616</v>
       </c>
       <c r="C34">
-        <v>109.2211313239004</v>
+        <v>109.1927282784987</v>
       </c>
       <c r="D34">
-        <v>106.11138624124</v>
+        <v>106.0828471810813</v>
       </c>
       <c r="E34">
-        <v>112.3308764065608</v>
+        <v>112.3026093759161</v>
       </c>
       <c r="F34">
         <v>108.9565410743932</v>
@@ -1077,13 +1077,13 @@
         <v>2617</v>
       </c>
       <c r="C35">
-        <v>108.9645162874485</v>
+        <v>108.9554618999196</v>
       </c>
       <c r="D35">
-        <v>105.8553488733201</v>
+        <v>105.8461617554989</v>
       </c>
       <c r="E35">
-        <v>112.073683701577</v>
+        <v>112.0647620443402</v>
       </c>
       <c r="F35">
         <v>108.8891784076246</v>
@@ -1097,13 +1097,13 @@
         <v>2618</v>
       </c>
       <c r="C36">
-        <v>108.8907278258436</v>
+        <v>108.8880855122883</v>
       </c>
       <c r="D36">
-        <v>105.7821528947824</v>
+        <v>105.779378039778</v>
       </c>
       <c r="E36">
-        <v>111.9993027569048</v>
+        <v>111.9967929847986</v>
       </c>
       <c r="F36">
         <v>108.7415192743683</v>
@@ -1117,13 +1117,13 @@
         <v>2619</v>
       </c>
       <c r="C37">
-        <v>108.7455788679921</v>
+        <v>108.7404422520793</v>
       </c>
       <c r="D37">
-        <v>105.6375922730855</v>
+        <v>105.6323234369356</v>
       </c>
       <c r="E37">
-        <v>111.8535654628986</v>
+        <v>111.848561067223</v>
       </c>
       <c r="F37">
         <v>108.8400636055448</v>
@@ -1137,13 +1137,13 @@
         <v>2620</v>
       </c>
       <c r="C38">
-        <v>108.8358549567551</v>
+        <v>108.8389899206178</v>
       </c>
       <c r="D38">
-        <v>105.7284594329923</v>
+        <v>105.7314620267129</v>
       </c>
       <c r="E38">
-        <v>111.943250480518</v>
+        <v>111.9465178145227</v>
       </c>
       <c r="F38">
         <v>108.7970022398312</v>
@@ -1157,13 +1157,13 @@
         <v>2621</v>
       </c>
       <c r="C39">
-        <v>108.7973191342974</v>
+        <v>108.7958626657491</v>
       </c>
       <c r="D39">
-        <v>105.690516088664</v>
+        <v>105.688926401771</v>
       </c>
       <c r="E39">
-        <v>111.9041221799309</v>
+        <v>111.9027989297272</v>
       </c>
       <c r="F39">
         <v>109.1756368553519</v>
@@ -1177,13 +1177,13 @@
         <v>2622</v>
       </c>
       <c r="C40">
-        <v>109.1617741172784</v>
+        <v>109.1745401363547</v>
       </c>
       <c r="D40">
-        <v>106.0555298138415</v>
+        <v>106.06816297868</v>
       </c>
       <c r="E40">
-        <v>112.2680184207153</v>
+        <v>112.2809172940294</v>
       </c>
       <c r="F40">
         <v>108.6177438805128</v>
@@ -1197,13 +1197,13 @@
         <v>2623</v>
       </c>
       <c r="C41">
-        <v>108.6354066723645</v>
+        <v>108.6166672128006</v>
       </c>
       <c r="D41">
-        <v>105.5296842559341</v>
+        <v>105.5108093348206</v>
       </c>
       <c r="E41">
-        <v>111.7411290887948</v>
+        <v>111.7225250907807</v>
       </c>
       <c r="F41">
         <v>108.9687677427628</v>
@@ -1217,13 +1217,13 @@
         <v>2624</v>
       </c>
       <c r="C42">
-        <v>108.9561910700508</v>
+        <v>108.9676745875877</v>
       </c>
       <c r="D42">
-        <v>105.8510348965856</v>
+        <v>105.8623791965722</v>
       </c>
       <c r="E42">
-        <v>112.0613472435161</v>
+        <v>112.0729699786033</v>
       </c>
       <c r="F42">
         <v>108.5742650482761</v>
@@ -1237,13 +1237,13 @@
         <v>2625</v>
       </c>
       <c r="C43">
-        <v>108.586631887099</v>
+        <v>108.5731707337282</v>
       </c>
       <c r="D43">
-        <v>105.4820328022842</v>
+        <v>105.468430343747</v>
       </c>
       <c r="E43">
-        <v>111.6912309719139</v>
+        <v>111.6779111237094</v>
       </c>
       <c r="F43">
         <v>108.2612930278715</v>
@@ -1257,13 +1257,13 @@
         <v>2626</v>
       </c>
       <c r="C44">
-        <v>108.2715873889493</v>
+        <v>108.2601945061826</v>
       </c>
       <c r="D44">
-        <v>105.1675543944339</v>
+        <v>105.1560223166006</v>
       </c>
       <c r="E44">
-        <v>111.3756203834646</v>
+        <v>111.3643666957645</v>
       </c>
       <c r="F44">
         <v>108.02055620182</v>
@@ -1277,13 +1277,13 @@
         <v>2627</v>
       </c>
       <c r="C45">
-        <v>108.0282052990458</v>
+        <v>108.0194598752675</v>
       </c>
       <c r="D45">
-        <v>104.924748048759</v>
+        <v>104.9158650305126</v>
       </c>
       <c r="E45">
-        <v>111.1316625493326</v>
+        <v>111.1230547200223</v>
       </c>
       <c r="F45">
         <v>108.292782291745</v>
@@ -1297,13 +1297,13 @@
         <v>2628</v>
       </c>
       <c r="C46">
-        <v>108.2826007237769</v>
+        <v>108.2916876566469</v>
       </c>
       <c r="D46">
-        <v>105.1797179094662</v>
+        <v>105.1886658122318</v>
       </c>
       <c r="E46">
-        <v>111.3854835380876</v>
+        <v>111.3947095010621</v>
       </c>
       <c r="F46">
         <v>108.2423787755633</v>
@@ -1317,13 +1317,13 @@
         <v>2629</v>
       </c>
       <c r="C47">
-        <v>108.242775075094</v>
+        <v>108.241285216727</v>
       </c>
       <c r="D47">
-        <v>105.1404820200476</v>
+        <v>105.1388530152755</v>
       </c>
       <c r="E47">
-        <v>111.3450681301404</v>
+        <v>111.3437174181785</v>
       </c>
       <c r="F47">
         <v>108.4057884357357</v>
@@ -1337,13 +1337,13 @@
         <v>2630</v>
       </c>
       <c r="C48">
-        <v>108.3991252969511</v>
+        <v>108.4046964801127</v>
       </c>
       <c r="D48">
-        <v>105.2974158897905</v>
+        <v>105.3028478189482</v>
       </c>
       <c r="E48">
-        <v>111.5008347041117</v>
+        <v>111.5065451412772</v>
       </c>
       <c r="F48">
         <v>108.6177438805128</v>
@@ -1357,13 +1357,13 @@
         <v>2631</v>
       </c>
       <c r="C49">
-        <v>108.609164694481</v>
+        <v>108.6166534598182</v>
       </c>
       <c r="D49">
-        <v>105.5080335838178</v>
+        <v>105.5153836958529</v>
       </c>
       <c r="E49">
-        <v>111.7102958051442</v>
+        <v>111.7179232237836</v>
       </c>
       <c r="F49">
         <v>107.975933861432</v>
@@ -1377,13 +1377,13 @@
         <v>2632</v>
       </c>
       <c r="C50">
-        <v>107.9970779006603</v>
+        <v>107.9748405958249</v>
       </c>
       <c r="D50">
-        <v>104.8964414955282</v>
+        <v>104.8740633021015</v>
       </c>
       <c r="E50">
-        <v>111.0977143057925</v>
+        <v>111.0756178895483</v>
       </c>
       <c r="F50">
         <v>108.3053659488434</v>
@@ -1397,13 +1397,13 @@
         <v>2633</v>
       </c>
       <c r="C51">
-        <v>108.2934742386076</v>
+        <v>108.3042742392842</v>
       </c>
       <c r="D51">
-        <v>105.1934043854221</v>
+        <v>105.2040601839952</v>
       </c>
       <c r="E51">
-        <v>111.393544091793</v>
+        <v>111.4044882945732</v>
       </c>
       <c r="F51">
         <v>108.3932595434158</v>
@@ -1417,13 +1417,13 @@
         <v>2634</v>
       </c>
       <c r="C52">
-        <v>108.388741186542</v>
+        <v>108.3921690609443</v>
       </c>
       <c r="D52">
-        <v>105.28925755188</v>
+        <v>105.292541723731</v>
       </c>
       <c r="E52">
-        <v>111.4882248212041</v>
+        <v>111.4917963981576</v>
       </c>
       <c r="F52">
         <v>108.2612930278715</v>
@@ -1437,13 +1437,13 @@
         <v>2635</v>
       </c>
       <c r="C53">
-        <v>108.2648005366103</v>
+        <v>108.2602026501317</v>
       </c>
       <c r="D53">
-        <v>105.1659012565848</v>
+        <v>105.1611594894239</v>
       </c>
       <c r="E53">
-        <v>111.3636998166358</v>
+        <v>111.3592458108394</v>
       </c>
       <c r="F53">
         <v>108.5493831335836</v>
@@ -1457,13 +1457,13 @@
         <v>2636</v>
       </c>
       <c r="C54">
-        <v>108.5383084235993</v>
+        <v>108.5483119318166</v>
       </c>
       <c r="D54">
-        <v>105.4399779453583</v>
+        <v>105.4498372622344</v>
       </c>
       <c r="E54">
-        <v>111.6366389018404</v>
+        <v>111.6467866013989</v>
       </c>
       <c r="F54">
         <v>108.4558359773156</v>
@@ -1477,13 +1477,13 @@
         <v>2637</v>
       </c>
       <c r="C55">
-        <v>108.4577648982185</v>
+        <v>108.4547654317959</v>
       </c>
       <c r="D55">
-        <v>105.360020392965</v>
+        <v>105.3568763038149</v>
       </c>
       <c r="E55">
-        <v>111.5555094034721</v>
+        <v>111.5526545597769</v>
       </c>
       <c r="F55">
         <v>108.7723596156275</v>
@@ -1497,13 +1497,13 @@
         <v>2638</v>
       </c>
       <c r="C56">
-        <v>108.7601972189223</v>
+        <v>108.7712710056957</v>
       </c>
       <c r="D56">
-        <v>105.6630166909277</v>
+        <v>105.6739452030212</v>
       </c>
       <c r="E56">
-        <v>111.857377746917</v>
+        <v>111.8685968083702</v>
       </c>
       <c r="F56">
         <v>108.7661948447608</v>
@@ -1517,13 +1517,13 @@
         <v>2639</v>
       </c>
       <c r="C57">
-        <v>108.7649885305099</v>
+        <v>108.7651067596011</v>
       </c>
       <c r="D57">
-        <v>105.6683948663537</v>
+        <v>105.6683678492203</v>
       </c>
       <c r="E57">
-        <v>111.861582194666</v>
+        <v>111.861845669982</v>
       </c>
       <c r="F57">
         <v>108.9381889229943</v>
@@ -1537,13 +1537,13 @@
         <v>2640</v>
       </c>
       <c r="C58">
-        <v>108.9310488651432</v>
+        <v>108.937101201542</v>
       </c>
       <c r="D58">
-        <v>105.8350347151683</v>
+        <v>105.8409418363859</v>
       </c>
       <c r="E58">
-        <v>112.0270630151181</v>
+        <v>112.0332605666982</v>
       </c>
       <c r="F58">
         <v>108.9626552179019</v>
@@ -1557,13 +1557,13 @@
         <v>2641</v>
       </c>
       <c r="C59">
-        <v>108.9605417235113</v>
+        <v>108.9615674551085</v>
       </c>
       <c r="D59">
-        <v>105.8651135489715</v>
+        <v>105.8659941663336</v>
       </c>
       <c r="E59">
-        <v>112.0559698980511</v>
+        <v>112.0571407438833</v>
       </c>
       <c r="F59">
         <v>108.6982734090277</v>
@@ -1577,13 +1577,13 @@
         <v>2642</v>
       </c>
       <c r="C60">
-        <v>108.706588174714</v>
+        <v>108.6971850654109</v>
       </c>
       <c r="D60">
-        <v>105.6117296284794</v>
+        <v>105.6021813469898</v>
       </c>
       <c r="E60">
-        <v>111.8014467209487</v>
+        <v>111.7921887838319</v>
       </c>
       <c r="F60">
         <v>108.5991201349611</v>
@@ -1597,13 +1597,13 @@
         <v>2643</v>
       </c>
       <c r="C61">
-        <v>108.6019329975681</v>
+        <v>108.5980317003531</v>
       </c>
       <c r="D61">
-        <v>105.5076572768739</v>
+        <v>105.5036112750256</v>
       </c>
       <c r="E61">
-        <v>111.6962087182624</v>
+        <v>111.6924521256805</v>
       </c>
       <c r="F61">
         <v>108.8400636055448</v>
@@ -1617,13 +1617,13 @@
         <v>2644</v>
       </c>
       <c r="C62">
-        <v>108.8306182140418</v>
+        <v>108.8389756543031</v>
       </c>
       <c r="D62">
-        <v>105.7369144472256</v>
+        <v>105.7451267428079</v>
       </c>
       <c r="E62">
-        <v>111.924321980858</v>
+        <v>111.9328245657984</v>
       </c>
       <c r="F62">
         <v>108.9443079278387</v>
@@ -1637,13 +1637,13 @@
         <v>2645</v>
       </c>
       <c r="C63">
-        <v>108.9392876759332</v>
+        <v>108.9432203999449</v>
       </c>
       <c r="D63">
-        <v>105.8461657830555</v>
+        <v>105.8499538057658</v>
       </c>
       <c r="E63">
-        <v>112.0324095688109</v>
+        <v>112.036486994124</v>
       </c>
       <c r="F63">
         <v>109.5541271770875</v>
@@ -1657,13 +1657,13 @@
         <v>2646</v>
       </c>
       <c r="C64">
-        <v>109.5314361683598</v>
+        <v>109.5530406305134</v>
       </c>
       <c r="D64">
-        <v>106.438810178331</v>
+        <v>106.4602710989608</v>
       </c>
       <c r="E64">
-        <v>112.6240621583887</v>
+        <v>112.6458101620659</v>
       </c>
       <c r="F64">
         <v>109.5719969819259</v>
@@ -1677,13 +1677,13 @@
         <v>2647</v>
       </c>
       <c r="C65">
-        <v>109.5695787201978</v>
+        <v>109.5709110364687</v>
       </c>
       <c r="D65">
-        <v>106.4775365824353</v>
+        <v>106.4787256883818</v>
       </c>
       <c r="E65">
-        <v>112.6616208579602</v>
+        <v>112.6630963845556</v>
       </c>
       <c r="F65">
         <v>109.320555020776</v>
@@ -1697,13 +1697,13 @@
         <v>2648</v>
       </c>
       <c r="C66">
-        <v>109.3283494622871</v>
+        <v>109.3194689793839</v>
       </c>
       <c r="D66">
-        <v>106.2368766412944</v>
+        <v>106.2278528198163</v>
       </c>
       <c r="E66">
-        <v>112.4198222832798</v>
+        <v>112.4110851389516</v>
       </c>
       <c r="F66">
         <v>109.2964649927592</v>
@@ -1717,13 +1717,13 @@
         <v>2649</v>
       </c>
       <c r="C67">
-        <v>109.2965992900596</v>
+        <v>109.2953798581418</v>
       </c>
       <c r="D67">
-        <v>106.2057098018173</v>
+        <v>106.2043471818865</v>
       </c>
       <c r="E67">
-        <v>112.3874887783019</v>
+        <v>112.3864125343971</v>
       </c>
       <c r="F67">
         <v>109.0663487343534</v>
@@ -1737,13 +1737,13 @@
         <v>2650</v>
       </c>
       <c r="C68">
-        <v>109.0734692164273</v>
+        <v>109.0652635210999</v>
       </c>
       <c r="D68">
-        <v>105.9831505002709</v>
+        <v>105.974801781422</v>
       </c>
       <c r="E68">
-        <v>112.1637879325836</v>
+        <v>112.1557252607778</v>
       </c>
       <c r="F68">
         <v>108.8830447700688</v>
@@ -1757,13 +1757,13 @@
         <v>2651</v>
       </c>
       <c r="C69">
-        <v>108.888746942897</v>
+        <v>108.8819601452249</v>
       </c>
       <c r="D69">
-        <v>105.7990026161042</v>
+        <v>105.7920735452305</v>
       </c>
       <c r="E69">
-        <v>111.9784912696898</v>
+        <v>111.9718467452194</v>
       </c>
       <c r="F69">
         <v>108.8707726028998</v>
@@ -1777,13 +1777,13 @@
         <v>2652</v>
       </c>
       <c r="C70">
-        <v>108.8704140375516</v>
+        <v>108.8696894568748</v>
       </c>
       <c r="D70">
-        <v>105.7812522242917</v>
+        <v>105.7803854570475</v>
       </c>
       <c r="E70">
-        <v>111.9595758508116</v>
+        <v>111.958993456702</v>
       </c>
       <c r="F70">
         <v>108.6611408758295</v>
@@ -1797,13 +1797,13 @@
         <v>2653</v>
       </c>
       <c r="C71">
-        <v>108.6675024808471</v>
+        <v>108.6600578690549</v>
       </c>
       <c r="D71">
-        <v>105.5789126380843</v>
+        <v>105.5713259337716</v>
       </c>
       <c r="E71">
-        <v>111.7560923236099</v>
+        <v>111.7487898043383</v>
       </c>
       <c r="F71">
         <v>108.3430757134982</v>
@@ -1817,13 +1817,13 @@
         <v>2654</v>
       </c>
       <c r="C72">
-        <v>108.3534360495848</v>
+        <v>108.3419926838371</v>
       </c>
       <c r="D72">
-        <v>105.265403410332</v>
+        <v>105.2538191179327</v>
       </c>
       <c r="E72">
-        <v>111.4414686888376</v>
+        <v>111.4301662497416</v>
       </c>
       <c r="F72">
         <v>107.9503964512533</v>
@@ -1837,13 +1837,13 @@
         <v>2655</v>
       </c>
       <c r="C73">
-        <v>107.9633932433434</v>
+        <v>107.9493123407418</v>
       </c>
       <c r="D73">
-        <v>104.875904100848</v>
+        <v>104.861684415034</v>
       </c>
       <c r="E73">
-        <v>111.0508823858388</v>
+        <v>111.0369402664497</v>
       </c>
       <c r="F73">
         <v>107.9886919389783</v>
@@ -1857,13 +1857,13 @@
         <v>2656</v>
       </c>
       <c r="C74">
-        <v>107.9868187359017</v>
+        <v>107.9876256602189</v>
       </c>
       <c r="D74">
-        <v>104.8999107098645</v>
+        <v>104.9005789006404</v>
       </c>
       <c r="E74">
-        <v>111.0737267619389</v>
+        <v>111.0746724197975</v>
       </c>
       <c r="F74">
         <v>107.9120370744176</v>
@@ -1877,13 +1877,13 @@
         <v>2657</v>
       </c>
       <c r="C75">
-        <v>107.9136422225631</v>
+        <v>107.9109533374958</v>
       </c>
       <c r="D75">
-        <v>104.8273138552011</v>
+        <v>104.8244860025589</v>
       </c>
       <c r="E75">
-        <v>110.9999705899252</v>
+        <v>110.9974206724328</v>
       </c>
       <c r="F75">
         <v>107.596348771564</v>
@@ -1897,13 +1897,13 @@
         <v>2658</v>
       </c>
       <c r="C76">
-        <v>107.6063534807308</v>
+        <v>107.5952640950233</v>
       </c>
       <c r="D76">
-        <v>104.5205820134954</v>
+        <v>104.5093541873346</v>
       </c>
       <c r="E76">
-        <v>110.6921249479663</v>
+        <v>110.681174002712</v>
       </c>
       <c r="F76">
         <v>107.1905822354762</v>
@@ -1917,13 +1917,13 @@
         <v>2659</v>
       </c>
       <c r="C77">
-        <v>107.2038958495517</v>
+        <v>107.1894965920578</v>
       </c>
       <c r="D77">
-        <v>104.1186642726932</v>
+        <v>104.1041286127306</v>
       </c>
       <c r="E77">
-        <v>110.2891274264101</v>
+        <v>110.2748645713851</v>
       </c>
       <c r="F77">
         <v>107.4466585494806</v>
@@ -1937,13 +1937,13 @@
         <v>2660</v>
       </c>
       <c r="C78">
-        <v>107.4372645737967</v>
+        <v>107.4455725107103</v>
       </c>
       <c r="D78">
-        <v>104.3525992218873</v>
+        <v>104.3607690877702</v>
       </c>
       <c r="E78">
-        <v>110.5219299257061</v>
+        <v>110.5303759336504</v>
       </c>
       <c r="F78">
         <v>107.3156945947433</v>
@@ -1957,13 +1957,13 @@
         <v>2661</v>
       </c>
       <c r="C79">
-        <v>107.3189175983481</v>
+        <v>107.3146075221221</v>
       </c>
       <c r="D79">
-        <v>104.2348284454804</v>
+        <v>104.2303798102992</v>
       </c>
       <c r="E79">
-        <v>110.4030067512157</v>
+        <v>110.398835233945</v>
       </c>
       <c r="F79">
         <v>108.0460158649633</v>
@@ -1977,13 +1977,13 @@
         <v>2662</v>
       </c>
       <c r="C80">
-        <v>108.0196785484406</v>
+        <v>108.0449303970413</v>
       </c>
       <c r="D80">
-        <v>104.9360450222642</v>
+        <v>104.9611569789861</v>
       </c>
       <c r="E80">
-        <v>111.1033120746171</v>
+        <v>111.1287038150965</v>
       </c>
       <c r="F80">
         <v>108.4620842828455</v>
@@ -1997,13 +1997,13 @@
         <v>2663</v>
       </c>
       <c r="C81">
-        <v>108.4459718124847</v>
+        <v>108.4609990219485</v>
       </c>
       <c r="D81">
-        <v>105.3628717249071</v>
+        <v>105.377764005577</v>
       </c>
       <c r="E81">
-        <v>111.5290719000622</v>
+        <v>111.5442340383199</v>
       </c>
       <c r="F81">
         <v>108.7168172805108</v>
@@ -2017,13 +2017,13 @@
         <v>2664</v>
       </c>
       <c r="C82">
-        <v>108.7066390781186</v>
+        <v>108.7157324481784</v>
       </c>
       <c r="D82">
-        <v>105.6241001963496</v>
+        <v>105.6330609011552</v>
       </c>
       <c r="E82">
-        <v>111.7891779598876</v>
+        <v>111.7984039952015</v>
       </c>
       <c r="F82">
         <v>109.8854440084211</v>
@@ -2037,13 +2037,13 @@
         <v>2665</v>
       </c>
       <c r="C83">
-        <v>109.845228515211</v>
+        <v>109.884362706545</v>
       </c>
       <c r="D83">
-        <v>106.7629436865176</v>
+        <v>106.8019498247861</v>
       </c>
       <c r="E83">
-        <v>112.9275133439044</v>
+        <v>112.9667755883038</v>
       </c>
       <c r="F83">
         <v>109.4825096572226</v>
@@ -2057,13 +2057,13 @@
         <v>2666</v>
       </c>
       <c r="C84">
-        <v>109.4938633392696</v>
+        <v>109.4814273221412</v>
       </c>
       <c r="D84">
-        <v>106.4121258787793</v>
+        <v>106.3995547764657</v>
       </c>
       <c r="E84">
-        <v>112.5756007997599</v>
+        <v>112.5632998678167</v>
       </c>
       <c r="F84">
         <v>109.6552074906137</v>
@@ -2077,13 +2077,13 @@
         <v>2667</v>
       </c>
       <c r="C85">
-        <v>109.6486912983059</v>
+        <v>109.6541247457372</v>
       </c>
       <c r="D85">
-        <v>106.5675256225769</v>
+        <v>106.5728229907437</v>
       </c>
       <c r="E85">
-        <v>112.7298569740349</v>
+        <v>112.7354265007307</v>
       </c>
       <c r="F85">
         <v>109.6611396701554</v>
@@ -2097,13 +2097,13 @@
         <v>2668</v>
       </c>
       <c r="C86">
-        <v>109.6597192366674</v>
+        <v>109.660056112436</v>
       </c>
       <c r="D86">
-        <v>106.5791309663889</v>
+        <v>106.579331845909</v>
       </c>
       <c r="E86">
-        <v>112.7403075069458</v>
+        <v>112.7407803789629</v>
       </c>
       <c r="F86">
         <v>109.0906797003306</v>
@@ -2117,13 +2117,13 @@
         <v>2669</v>
       </c>
       <c r="C87">
-        <v>109.1091856396024</v>
+        <v>109.0895950831601</v>
       </c>
       <c r="D87">
-        <v>106.0290988253125</v>
+        <v>106.0093721731719</v>
       </c>
       <c r="E87">
-        <v>112.1892724538923</v>
+        <v>112.1698179931482</v>
       </c>
       <c r="F87">
         <v>108.7723596156275</v>
@@ -2137,13 +2137,13 @@
         <v>2670</v>
       </c>
       <c r="C88">
-        <v>108.7827557071481</v>
+        <v>108.77127390932</v>
       </c>
       <c r="D88">
-        <v>105.7032190410697</v>
+        <v>105.691604312958</v>
       </c>
       <c r="E88">
-        <v>111.8622923732264</v>
+        <v>111.850943505682</v>
       </c>
       <c r="F88">
         <v>108.4433342806002</v>
@@ -2157,13 +2157,13 @@
         <v>2671</v>
       </c>
       <c r="C89">
-        <v>108.4537527156518</v>
+        <v>108.4422474599418</v>
       </c>
       <c r="D89">
-        <v>105.3747657900282</v>
+        <v>105.3631292480119</v>
       </c>
       <c r="E89">
-        <v>111.5327396412754</v>
+        <v>111.5213656718716</v>
       </c>
       <c r="F89">
         <v>108.803158785667</v>
@@ -2177,13 +2177,13 @@
         <v>2672</v>
       </c>
       <c r="C90">
-        <v>108.7903291094668</v>
+        <v>108.802072360421</v>
       </c>
       <c r="D90">
-        <v>105.7118899487495</v>
+        <v>105.7235000181201</v>
       </c>
       <c r="E90">
-        <v>111.868768270184</v>
+        <v>111.8806447027219</v>
       </c>
       <c r="F90">
         <v>108.8769095021299</v>
@@ -2197,13 +2197,13 @@
         <v>2673</v>
       </c>
       <c r="C91">
-        <v>108.8729881735155</v>
+        <v>108.8758236136364</v>
       </c>
       <c r="D91">
-        <v>105.7951231724381</v>
+        <v>105.7978258980076</v>
       </c>
       <c r="E91">
-        <v>111.9508531745929</v>
+        <v>111.9538213292652</v>
       </c>
       <c r="F91">
         <v>108.336795039356</v>
@@ -2217,13 +2217,13 @@
         <v>2674</v>
       </c>
       <c r="C92">
-        <v>108.3539913722594</v>
+        <v>108.3357074253059</v>
       </c>
       <c r="D92">
-        <v>105.2766347574816</v>
+        <v>105.2582173998685</v>
       </c>
       <c r="E92">
-        <v>111.4313479870373</v>
+        <v>111.4131974507433</v>
       </c>
       <c r="F92">
         <v>108.4745758130626</v>
@@ -2237,13 +2237,13 @@
         <v>2675</v>
       </c>
       <c r="C93">
-        <v>108.4694767215295</v>
+        <v>108.4734893927423</v>
       </c>
       <c r="D93">
-        <v>105.3926919932819</v>
+        <v>105.3965701838647</v>
       </c>
       <c r="E93">
-        <v>111.5462614497772</v>
+        <v>111.5504086016199</v>
       </c>
       <c r="F93">
         <v>108.1855425923007</v>
@@ -2257,13 +2257,13 @@
         <v>2676</v>
       </c>
       <c r="C94">
-        <v>108.1942341780985</v>
+        <v>108.1844567909612</v>
       </c>
       <c r="D94">
-        <v>105.1180055330751</v>
+        <v>105.1080931727934</v>
       </c>
       <c r="E94">
-        <v>111.2704628231218</v>
+        <v>111.260820409129</v>
       </c>
       <c r="F94">
         <v>108.2612930278715</v>
@@ -2277,13 +2277,13 @@
         <v>2677</v>
       </c>
       <c r="C95">
-        <v>108.25800995291</v>
+        <v>108.2599983640328</v>
       </c>
       <c r="D95">
-        <v>105.1823549039721</v>
+        <v>105.1842054742541</v>
       </c>
       <c r="E95">
-        <v>111.333665001848</v>
+        <v>111.3357912538114</v>
       </c>
       <c r="F95">
         <v>108.7538603587967</v>
@@ -2297,13 +2297,13 @@
         <v>2678</v>
       </c>
       <c r="C96">
-        <v>108.7358548387047</v>
+        <v>108.7527783785326</v>
       </c>
       <c r="D96">
-        <v>105.6607161450312</v>
+        <v>105.6775056311965</v>
       </c>
       <c r="E96">
-        <v>111.8109935323782</v>
+        <v>111.8280511258686</v>
       </c>
       <c r="F96">
         <v>108.9809879401292</v>
@@ -2317,13 +2317,13 @@
         <v>2679</v>
       </c>
       <c r="C97">
-        <v>108.9717037210377</v>
+        <v>108.9799023422122</v>
       </c>
       <c r="D97">
-        <v>105.8971257237369</v>
+        <v>105.905191446429</v>
       </c>
       <c r="E97">
-        <v>112.0462817183386</v>
+        <v>112.0546132379954</v>
       </c>
       <c r="F97">
         <v>109.3085131441353</v>
@@ -2337,13 +2337,13 @@
         <v>2680</v>
       </c>
       <c r="C98">
-        <v>109.2961774504785</v>
+        <v>109.3074234655018</v>
       </c>
       <c r="D98">
-        <v>106.2221467020143</v>
+        <v>106.2332610771814</v>
       </c>
       <c r="E98">
-        <v>112.3702081989428</v>
+        <v>112.3815858538222</v>
       </c>
       <c r="F98">
         <v>109.1149850669112</v>
@@ -2357,13 +2357,13 @@
         <v>2681</v>
       </c>
       <c r="C99">
-        <v>109.1201146087362</v>
+        <v>109.1138926332342</v>
       </c>
       <c r="D99">
-        <v>106.0466495367829</v>
+        <v>106.040294931953</v>
       </c>
       <c r="E99">
-        <v>112.1935796806895</v>
+        <v>112.1874903345154</v>
       </c>
       <c r="F99">
         <v>109.3686599166331</v>
@@ -2377,13 +2377,13 @@
         <v>2682</v>
       </c>
       <c r="C100">
-        <v>109.3592457507984</v>
+        <v>109.3675691274483</v>
       </c>
       <c r="D100">
-        <v>106.286339366139</v>
+        <v>106.2945294099188</v>
       </c>
       <c r="E100">
-        <v>112.4321521354579</v>
+        <v>112.4406088449778</v>
       </c>
       <c r="F100">
         <v>109.9616839294657</v>
@@ -2397,13 +2397,13 @@
         <v>2683</v>
       </c>
       <c r="C101">
-        <v>109.9404762379309</v>
+        <v>109.9605931326046</v>
       </c>
       <c r="D101">
-        <v>106.868056972172</v>
+        <v>106.8880439856454</v>
       </c>
       <c r="E101">
-        <v>113.0128955036898</v>
+        <v>113.0331422795637</v>
       </c>
       <c r="F101">
         <v>109.8207368397243</v>
@@ -2417,13 +2417,13 @@
         <v>2684</v>
       </c>
       <c r="C102">
-        <v>109.8236795870803</v>
+        <v>109.8196456037916</v>
       </c>
       <c r="D102">
-        <v>106.7518291287301</v>
+        <v>106.7476643127899</v>
       </c>
       <c r="E102">
-        <v>112.8955300454306</v>
+        <v>112.8916268947932</v>
       </c>
       <c r="F102">
         <v>109.7676598711909</v>
@@ -2437,13 +2437,13 @@
         <v>2685</v>
       </c>
       <c r="C103">
-        <v>109.7685626364313</v>
+        <v>109.7665687085146</v>
       </c>
       <c r="D103">
-        <v>106.6972849173965</v>
+        <v>106.6951588991567</v>
       </c>
       <c r="E103">
-        <v>112.8398403554661</v>
+        <v>112.8379785178726</v>
       </c>
       <c r="F103">
         <v>109.8501715899903</v>
@@ -2457,13 +2457,13 @@
         <v>2686</v>
       </c>
       <c r="C104">
-        <v>109.8463260524159</v>
+        <v>109.8490888423929</v>
       </c>
       <c r="D104">
-        <v>106.7756172227104</v>
+        <v>106.7782493194466</v>
       </c>
       <c r="E104">
-        <v>112.9170348821214</v>
+        <v>112.9199283653391</v>
       </c>
       <c r="F104">
         <v>110.5855583702622</v>
@@ -2477,13 +2477,13 @@
         <v>2687</v>
       </c>
       <c r="C105">
-        <v>110.5597136567115</v>
+        <v>110.584472397312</v>
       </c>
       <c r="D105">
-        <v>107.4894505182207</v>
+        <v>107.5140781234074</v>
       </c>
       <c r="E105">
-        <v>113.6299767952024</v>
+        <v>113.6548666712165</v>
       </c>
       <c r="F105">
         <v>110.5570423282963</v>
@@ -2497,13 +2497,13 @@
         <v>2688</v>
       </c>
       <c r="C106">
-        <v>110.5561440744388</v>
+        <v>110.5559837269608</v>
       </c>
       <c r="D106">
-        <v>107.4864521206214</v>
+        <v>107.4861608090984</v>
       </c>
       <c r="E106">
-        <v>113.6258360282562</v>
+        <v>113.6258066448231</v>
       </c>
       <c r="F106">
         <v>110.471283638637</v>
@@ -2517,13 +2517,13 @@
         <v>2689</v>
       </c>
       <c r="C107">
-        <v>110.4731490730334</v>
+        <v>110.470224708637</v>
       </c>
       <c r="D107">
-        <v>107.4040262627741</v>
+        <v>107.4009709707264</v>
       </c>
       <c r="E107">
-        <v>113.5422718832927</v>
+        <v>113.5394784465476</v>
       </c>
       <c r="F107">
         <v>110.5399158926931</v>
@@ -2537,13 +2537,13 @@
         <v>2690</v>
       </c>
       <c r="C108">
-        <v>110.5366817290681</v>
+        <v>110.5388544172437</v>
       </c>
       <c r="D108">
-        <v>107.4681284250472</v>
+        <v>107.47017007126</v>
       </c>
       <c r="E108">
-        <v>113.605235033089</v>
+        <v>113.6075387632275</v>
       </c>
       <c r="F108">
         <v>110.3852071968204</v>
@@ -2557,13 +2557,13 @@
         <v>2691</v>
       </c>
       <c r="C109">
-        <v>110.3893188126636</v>
+        <v>110.384144908221</v>
       </c>
       <c r="D109">
-        <v>107.3213303561893</v>
+        <v>107.3160252691148</v>
       </c>
       <c r="E109">
-        <v>113.4573072691379</v>
+        <v>113.4522645473272</v>
       </c>
       <c r="F109">
         <v>110.6481707863494</v>
@@ -2577,13 +2577,13 @@
         <v>2692</v>
       </c>
       <c r="C110">
-        <v>110.6384516566019</v>
+        <v>110.6471126065578</v>
       </c>
       <c r="D110">
-        <v>107.5710175634635</v>
+        <v>107.5795467499311</v>
       </c>
       <c r="E110">
-        <v>113.7058857497403</v>
+        <v>113.7146784631844</v>
       </c>
       <c r="F110">
         <v>110.6538544705691</v>
@@ -2597,13 +2597,13 @@
         <v>2693</v>
       </c>
       <c r="C111">
-        <v>110.6523498451246</v>
+        <v>110.6527977389134</v>
       </c>
       <c r="D111">
-        <v>107.5854852766531</v>
+        <v>107.5858014882701</v>
       </c>
       <c r="E111">
-        <v>113.7192144135962</v>
+        <v>113.7197939895567</v>
       </c>
       <c r="F111">
         <v>110.6652176721821</v>
@@ -2617,13 +2617,13 @@
         <v>2694</v>
       </c>
       <c r="C112">
-        <v>110.663798995698</v>
+        <v>110.664161789145</v>
       </c>
       <c r="D112">
-        <v>107.5975036513226</v>
+        <v>107.5977347949971</v>
       </c>
       <c r="E112">
-        <v>113.7300943400734</v>
+        <v>113.7305887832929</v>
       </c>
       <c r="F112">
         <v>110.9923586218962</v>
@@ -2637,13 +2637,13 @@
         <v>2695</v>
       </c>
       <c r="C113">
-        <v>110.9802933146345</v>
+        <v>110.991301683278</v>
       </c>
       <c r="D113">
-        <v>107.9145418635745</v>
+        <v>107.9254186388694</v>
       </c>
       <c r="E113">
-        <v>114.0460447656944</v>
+        <v>114.0571847276866</v>
       </c>
       <c r="F113">
         <v>110.8631801494805</v>
@@ -2657,13 +2657,13 @@
         <v>2696</v>
       </c>
       <c r="C114">
-        <v>110.8661542371164</v>
+        <v>110.8621252761272</v>
       </c>
       <c r="D114">
-        <v>107.8009682099434</v>
+        <v>107.7968070784132</v>
       </c>
       <c r="E114">
-        <v>113.9313402642894</v>
+        <v>113.9274434738413</v>
       </c>
       <c r="F114">
         <v>110.9194328220188</v>
@@ -2677,13 +2677,13 @@
         <v>2697</v>
       </c>
       <c r="C115">
-        <v>110.9166480962822</v>
+        <v>110.9183771636002</v>
       </c>
       <c r="D115">
-        <v>107.8520297374393</v>
+        <v>107.8536265350991</v>
       </c>
       <c r="E115">
-        <v>113.9812664551252</v>
+        <v>113.9831277921014</v>
       </c>
       <c r="F115">
         <v>110.6992739935161</v>
@@ -2697,13 +2697,13 @@
         <v>2698</v>
       </c>
       <c r="C116">
-        <v>110.7056464175143</v>
+        <v>110.698212686022</v>
       </c>
       <c r="D116">
-        <v>107.6415850447991</v>
+        <v>107.634018823865</v>
       </c>
       <c r="E116">
-        <v>113.7697077902296</v>
+        <v>113.762406548179</v>
       </c>
       <c r="F116">
         <v>110.7106150250143</v>
@@ -2717,13 +2717,13 @@
         <v>2699</v>
       </c>
       <c r="C117">
-        <v>110.7094635562129</v>
+        <v>110.7095605313461</v>
       </c>
       <c r="D117">
-        <v>107.6459698577699</v>
+        <v>107.6459344286827</v>
       </c>
       <c r="E117">
-        <v>113.772957254656</v>
+        <v>113.7731866340095</v>
       </c>
       <c r="F117">
         <v>110.2005040181394</v>
@@ -2737,13 +2737,13 @@
         <v>2700</v>
       </c>
       <c r="C118">
-        <v>110.2167393168259</v>
+        <v>110.1994481260983</v>
       </c>
       <c r="D118">
-        <v>107.153752730967</v>
+        <v>107.1363291494037</v>
       </c>
       <c r="E118">
-        <v>113.2797259026849</v>
+        <v>113.262567102793</v>
       </c>
       <c r="F118">
         <v>110.6197315026464</v>
@@ -2757,13 +2757,13 @@
         <v>2701</v>
       </c>
       <c r="C119">
-        <v>110.6049553161762</v>
+        <v>110.6186701236593</v>
       </c>
       <c r="D119">
-        <v>107.5424981749027</v>
+        <v>107.5560771986119</v>
       </c>
       <c r="E119">
-        <v>113.6674124574498</v>
+        <v>113.6812630487066</v>
       </c>
       <c r="F119">
         <v>110.1831125021524</v>
@@ -2777,13 +2777,13 @@
         <v>2702</v>
       </c>
       <c r="C120">
-        <v>110.1967079167662</v>
+        <v>110.1820491916752</v>
       </c>
       <c r="D120">
-        <v>107.1347761679117</v>
+        <v>107.1199789255647</v>
       </c>
       <c r="E120">
-        <v>113.2586396656207</v>
+        <v>113.2441194577856</v>
       </c>
       <c r="F120">
         <v>109.5660419131192</v>
@@ -2797,13 +2797,13 @@
         <v>2703</v>
       </c>
       <c r="C121">
-        <v>109.5865241759564</v>
+        <v>109.564973942355</v>
       </c>
       <c r="D121">
-        <v>106.5250664795756</v>
+        <v>106.5033819390705</v>
       </c>
       <c r="E121">
-        <v>112.6479818723373</v>
+        <v>112.6265659456396</v>
       </c>
       <c r="F121">
         <v>109.7440310163861</v>
@@ -2817,13 +2817,13 @@
         <v>2704</v>
       </c>
       <c r="C122">
-        <v>109.7376553322766</v>
+        <v>109.7429354096396</v>
       </c>
       <c r="D122">
-        <v>106.6767580628519</v>
+        <v>106.6819018160922</v>
       </c>
       <c r="E122">
-        <v>112.7985526017014</v>
+        <v>112.8039690031869</v>
       </c>
       <c r="F122">
         <v>109.879568998882</v>
@@ -2837,13 +2837,13 @@
         <v>2705</v>
       </c>
       <c r="C123">
-        <v>109.8737284637019</v>
+        <v>109.8784810690052</v>
       </c>
       <c r="D123">
-        <v>106.8133923666022</v>
+        <v>106.8180091203224</v>
       </c>
       <c r="E123">
-        <v>112.9340645608017</v>
+        <v>112.938953017688</v>
       </c>
       <c r="F123">
         <v>109.6195824602083</v>
@@ -2857,13 +2857,13 @@
         <v>2706</v>
       </c>
       <c r="C124">
-        <v>109.6273048277399</v>
+        <v>109.6185247605146</v>
       </c>
       <c r="D124">
-        <v>106.5675191389442</v>
+        <v>106.558603157957</v>
       </c>
       <c r="E124">
-        <v>112.6870905165355</v>
+        <v>112.6784463630722</v>
       </c>
       <c r="F124">
         <v>109.7499404901558</v>
@@ -2877,13 +2877,13 @@
         <v>2707</v>
       </c>
       <c r="C125">
-        <v>109.744743937139</v>
+        <v>109.7488803850963</v>
       </c>
       <c r="D125">
-        <v>106.685520108646</v>
+        <v>106.689520001707</v>
       </c>
       <c r="E125">
-        <v>112.8039677656321</v>
+        <v>112.8082407684856</v>
       </c>
       <c r="F125">
         <v>109.8207368397243</v>
@@ -2897,13 +2897,13 @@
         <v>2708</v>
       </c>
       <c r="C126">
-        <v>109.8171443326291</v>
+        <v>109.8196753850598</v>
       </c>
       <c r="D126">
-        <v>106.7584840850557</v>
+        <v>106.7608787226591</v>
       </c>
       <c r="E126">
-        <v>112.8758045802024</v>
+        <v>112.8784720474605</v>
       </c>
       <c r="F126">
         <v>109.5719969819259</v>
